--- a/input/tab.xlsx
+++ b/input/tab.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projetos\prj_primeiroProjeto\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5457F758-4CFF-4EAD-BAA3-C7295943EF7F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7182CA-2A6C-44EB-A2BB-90B2AEFB2260}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-22215" yWindow="810" windowWidth="20190" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="NovaAba" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="49">
   <si>
     <t>Cred.</t>
   </si>
@@ -251,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -278,6 +279,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -659,10 +661,539 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66B04230-3FAE-4D91-96BB-4A73545611C0}">
+  <dimension ref="A1:I20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="10">
+        <v>44178.473449074074</v>
+      </c>
+      <c r="E2">
+        <v>112.97</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="10">
+        <v>44178.473703703705</v>
+      </c>
+      <c r="E3">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="10">
+        <v>44178.484293981484</v>
+      </c>
+      <c r="E4">
+        <v>58.08</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="10">
+        <v>44178.484895833331</v>
+      </c>
+      <c r="E5">
+        <v>96.21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="10">
+        <v>44178.485798611109</v>
+      </c>
+      <c r="E6">
+        <v>33.28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="10">
+        <v>44178.536273148151</v>
+      </c>
+      <c r="E7">
+        <v>51.23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="10">
+        <v>44178.569803240738</v>
+      </c>
+      <c r="E8">
+        <v>234.19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" s="10">
+        <v>44178.587372685186</v>
+      </c>
+      <c r="E9">
+        <v>325.54000000000002</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" s="10">
+        <v>44178.596990740742</v>
+      </c>
+      <c r="E10">
+        <v>298.5</v>
+      </c>
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="10">
+        <v>44178.607569444444</v>
+      </c>
+      <c r="E11">
+        <v>7.99</v>
+      </c>
+      <c r="F11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="10">
+        <v>44178.619386574072</v>
+      </c>
+      <c r="E12">
+        <v>180.88</v>
+      </c>
+      <c r="F12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" s="10">
+        <v>44179.650717592594</v>
+      </c>
+      <c r="E13">
+        <v>36.520000000000003</v>
+      </c>
+      <c r="F13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" s="10">
+        <v>44180.650717592594</v>
+      </c>
+      <c r="E14">
+        <v>26.05</v>
+      </c>
+      <c r="F14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" s="10">
+        <v>44181.650717592594</v>
+      </c>
+      <c r="E15">
+        <v>24.26</v>
+      </c>
+      <c r="F15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" s="10">
+        <v>44182.650717592594</v>
+      </c>
+      <c r="E16">
+        <v>192.02</v>
+      </c>
+      <c r="F16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" s="10">
+        <v>44183.650717592594</v>
+      </c>
+      <c r="E17">
+        <v>26.23</v>
+      </c>
+      <c r="F17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18" s="10">
+        <v>44184.650717592594</v>
+      </c>
+      <c r="E18">
+        <v>25.48</v>
+      </c>
+      <c r="F18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" s="10">
+        <v>44185.650717592594</v>
+      </c>
+      <c r="E19">
+        <v>56.2</v>
+      </c>
+      <c r="F19" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" t="s">
+        <v>44</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
